--- a/Class_03/CasosenExcel.xlsx
+++ b/Class_03/CasosenExcel.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,61 +387,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Arica y Parinacota</t>
         </is>
       </c>
       <c r="B2">
-        <v>152</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>54</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Tarapacá</t>
         </is>
       </c>
       <c r="B3">
-        <v>152</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Clínica Santa María</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B4">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D4">
@@ -449,18 +423,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Hospital Carlos Cisternas_x000D_
+Calama</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B5">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -468,68 +443,56 @@
         </is>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Hospital Carlos Cisternas_x000D_
+Calama</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Atacama</t>
         </is>
       </c>
       <c r="B6">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Clínica Las Condes</t>
+          <t>Hospital de Copiapó</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B7">
-        <v>152</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B8">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -537,340 +500,340 @@
         </is>
       </c>
       <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Clinica Ciudad del Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>152</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Clínica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>152</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Clínica Santa María</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>152</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Clínica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>152</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Clínica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>83</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Clínica Las Condes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>152</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Clínica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>152</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D15">
         <v>42</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>152</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D9">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>152</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>40</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>152</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D10">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>152</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>31</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>152</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D11">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>152</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>32</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>152</v>
-      </c>
-      <c r="C12" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>152</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Fememino</t>
         </is>
       </c>
-      <c r="D12">
+      <c r="D19">
         <v>58</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>152</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D13">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>152</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D20">
         <v>48</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>152</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D14">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D21">
         <v>23</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Hospital_x000D_
 de Carabineros</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>152</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D15">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>152</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D22">
         <v>26</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>152</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>46</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>152</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>67</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>152</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>31</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>152</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>46</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>152</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Clínica Alemana</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>152</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>34</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Clínica Tabancura</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>152</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>29</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Clínica Las Condes</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -886,11 +849,11 @@
         </is>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Clínica Las Condes</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -905,15 +868,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Laboratorio Integramédica</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -928,15 +891,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Clínica Red Salud Santiago</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -955,11 +918,11 @@
         </is>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Clínica Tabancura</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -977,9 +940,12 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Red Salud Vitacura</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -994,321 +960,318 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Clínica Tabancura</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>152</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Clínica Las Condes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>152</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Clínica Las Condes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>152</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Laboratorio Integramédica</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>152</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Clínica Red Salud Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>152</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Clínica Tabancura</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>152</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Red Salud Vitacura</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>152</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D35">
         <v>31</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>152</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D29">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>152</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D36">
         <v>47</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Clínica Indisa</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>152</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D30">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>152</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D37">
         <v>39</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>152</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D31">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>152</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D38">
         <v>37</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Laboratorio Integramédica</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>152</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D32">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>152</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D39">
         <v>28</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Pontificia Universidad Católica</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>152</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D33">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>152</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D40">
         <v>29</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>152</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D34">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>152</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D41">
         <v>28</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>152</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>53</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Clínica Indisa</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>152</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>38</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Laboratorio Integramédica</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>152</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>55</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Laboratorio Bionet</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>152</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>51</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Laboratorio Integramédica</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>152</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>23</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Clínica Santa María</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>152</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>36</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Clínica Las Condes</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>152</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>58</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Clínica Las Condes</t>
-        </is>
-      </c>
-    </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
@@ -1324,11 +1287,11 @@
         </is>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Laboratorio Bionet</t>
+          <t>Clínica Indisa</t>
         </is>
       </c>
     </row>
@@ -1343,15 +1306,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D43">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hospital del trabajador</t>
+          <t>Laboratorio Integramédica</t>
         </is>
       </c>
     </row>
@@ -1366,413 +1329,413 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Laboratorio Bionet</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>152</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>51</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Laboratorio Integramédica</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>152</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Clínica Santa María</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>152</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>36</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Clínica Las Condes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>152</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Clínica Las Condes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>152</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Laboratorio Bionet</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>152</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hospital del trabajador</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>152</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D51">
         <v>29</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>152</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D45">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>152</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D52">
         <v>61</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>152</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D46">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>152</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D53">
         <v>15</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>152</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>152</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Megasalud. S. A.</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>152</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D48">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>152</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D55">
         <v>42</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Mutual de Seguridad</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>152</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D49">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>152</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D56">
         <v>48</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>152</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D50">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>152</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D57">
         <v>45</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>152</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D51">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>152</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D58">
         <v>29</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Clinica Vespucio</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>152</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D52">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>152</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D59">
         <v>24</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>152</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D53">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>152</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D60">
         <v>45</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Red de Salud UC-Christus_x000D_
 San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>152</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D54">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>152</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D61">
         <v>70</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Clínica_x000D_
 U. de Los Andes</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>152</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>58</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Clínica Las Condes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>152</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>43</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Hospital San juan de Dios</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>152</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>45</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Hospital San juan de Dios</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>152</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>38</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Hospital del Trabajador</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>152</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>53</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Hospital del Profesor</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>152</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>38</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bioxell Laboratorio Clinico Ltda.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Metropolitana</t>
-        </is>
-      </c>
-      <c r="B61">
-        <v>152</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>32</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Megasalud. S. A.</t>
-        </is>
-      </c>
-    </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
@@ -1788,11 +1751,11 @@
         </is>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clínica Las Condes</t>
         </is>
       </c>
     </row>
@@ -1811,11 +1774,11 @@
         </is>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mutual de Seguridad</t>
+          <t>Hospital San juan de Dios</t>
         </is>
       </c>
     </row>
@@ -1834,11 +1797,11 @@
         </is>
       </c>
       <c r="D64">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Clinica UC San Carlos de Apoquindo</t>
+          <t>Hospital San juan de Dios</t>
         </is>
       </c>
     </row>
@@ -1853,15 +1816,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Clinica UC San Carlos de Apoquindo</t>
+          <t>Hospital del Trabajador</t>
         </is>
       </c>
     </row>
@@ -1876,15 +1839,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D66">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Clinica UC San Carlos de Apoquindo</t>
+          <t>Hospital del Profesor</t>
         </is>
       </c>
     </row>
@@ -1903,11 +1866,11 @@
         </is>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Clinica UC San Carlos de Apoquindo</t>
+          <t>Bioxell Laboratorio Clinico Ltda.</t>
         </is>
       </c>
     </row>
@@ -1926,11 +1889,11 @@
         </is>
       </c>
       <c r="D68">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Integramédica</t>
+          <t>Megasalud. S. A.</t>
         </is>
       </c>
     </row>
@@ -1949,11 +1912,11 @@
         </is>
       </c>
       <c r="D69">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Integramédica</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -1968,15 +1931,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D70">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Integramédica</t>
+          <t>Mutual de Seguridad</t>
         </is>
       </c>
     </row>
@@ -1991,15 +1954,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D71">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Laboratorio Bionet</t>
+          <t>Clinica UC San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
@@ -2014,15 +1977,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Laboratorio Bionet</t>
+          <t>Clinica UC San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
@@ -2037,15 +2000,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Clinica Dávila</t>
+          <t>Clinica UC San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
@@ -2060,15 +2023,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D74">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Clinica Dávila</t>
+          <t>Clinica UC San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2050,11 @@
         </is>
       </c>
       <c r="D75">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Clinica Dávila</t>
+          <t>Integramédica</t>
         </is>
       </c>
     </row>
@@ -2106,15 +2069,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Integramédica</t>
         </is>
       </c>
     </row>
@@ -2133,11 +2096,11 @@
         </is>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Integramédica</t>
         </is>
       </c>
     </row>
@@ -2156,11 +2119,11 @@
         </is>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Laboratorio Bionet</t>
         </is>
       </c>
     </row>
@@ -2179,11 +2142,11 @@
         </is>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Laboratorio Bionet</t>
         </is>
       </c>
     </row>
@@ -2202,11 +2165,11 @@
         </is>
       </c>
       <c r="D80">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Clinica Dávila</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2184,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Femenino</t>
-        </is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>42</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Clinica Dávila</t>
         </is>
       </c>
     </row>
@@ -2241,15 +2207,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D82">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Clínica Alemana</t>
+          <t>Clinica Dávila</t>
         </is>
       </c>
     </row>
@@ -2264,11 +2230,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2287,11 +2253,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D84">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2314,7 +2280,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2333,11 +2299,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D86">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2356,11 +2322,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2379,11 +2345,8 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>45</v>
+          <t>Femenino</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2406,7 +2369,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2452,7 +2415,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,11 +2434,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2498,7 +2461,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2517,11 +2480,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2544,7 +2507,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2590,7 +2553,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2609,11 +2572,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2636,7 +2599,7 @@
         </is>
       </c>
       <c r="D99">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2655,11 +2618,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2682,11 +2645,11 @@
         </is>
       </c>
       <c r="D101">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2701,15 +2664,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2724,15 +2687,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D103">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2751,11 +2714,11 @@
         </is>
       </c>
       <c r="D104">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2770,15 +2733,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D105">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2797,11 +2760,11 @@
         </is>
       </c>
       <c r="D106">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2820,11 +2783,11 @@
         </is>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Clínica Alemana</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2806,7 @@
         </is>
       </c>
       <c r="D108">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2866,7 +2829,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2889,7 +2852,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2908,11 +2871,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D111">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2931,11 +2894,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D112">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2958,7 +2921,7 @@
         </is>
       </c>
       <c r="D113">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2981,7 +2944,7 @@
         </is>
       </c>
       <c r="D114">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3004,7 +2967,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3027,7 +2990,7 @@
         </is>
       </c>
       <c r="D116">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3046,11 +3009,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D117">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3069,11 +3032,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D118">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3092,11 +3055,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D119">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3119,7 +3082,7 @@
         </is>
       </c>
       <c r="D120">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3142,7 +3105,7 @@
         </is>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3165,7 +3128,7 @@
         </is>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3184,11 +3147,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D123">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3207,15 +3170,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D124">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3234,11 +3197,11 @@
         </is>
       </c>
       <c r="D125">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Mutual de Seguridad</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3257,11 +3220,11 @@
         </is>
       </c>
       <c r="D126">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Mutual de Seguridad</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3280,11 +3243,11 @@
         </is>
       </c>
       <c r="D127">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3299,15 +3262,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D128">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3322,15 +3285,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D129">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3345,15 +3308,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D130">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
     </row>
@@ -3368,15 +3331,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D131">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -3395,11 +3358,11 @@
         </is>
       </c>
       <c r="D132">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hospital La Florida</t>
+          <t>Mutual de Seguridad</t>
         </is>
       </c>
     </row>
@@ -3414,15 +3377,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D133">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hospital del Salvador</t>
+          <t>Mutual de Seguridad</t>
         </is>
       </c>
     </row>
@@ -3437,15 +3400,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D134">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Laboratorio Bionet</t>
+          <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
@@ -3464,11 +3427,11 @@
         </is>
       </c>
       <c r="D135">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
@@ -3483,15 +3446,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D136">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
@@ -3510,11 +3473,11 @@
         </is>
       </c>
       <c r="D137">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
@@ -3533,11 +3496,11 @@
         </is>
       </c>
       <c r="D138">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Clinica Las Condes</t>
+          <t>Clinica Alemana</t>
         </is>
       </c>
     </row>
@@ -3552,15 +3515,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D139">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Clinica Dávila</t>
+          <t>Hospital La Florida</t>
         </is>
       </c>
     </row>
@@ -3579,11 +3542,11 @@
         </is>
       </c>
       <c r="D140">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hospital del Trabajador</t>
+          <t>Hospital del Salvador</t>
         </is>
       </c>
     </row>
@@ -3598,15 +3561,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D141">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Clinica U. Andes</t>
+          <t>Laboratorio Bionet</t>
         </is>
       </c>
     </row>
@@ -3621,15 +3584,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D142">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hospital Lucio Córdova</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3611,11 @@
         </is>
       </c>
       <c r="D143">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hospital San juan de Dios</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -3667,15 +3630,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D144">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hospital San juan de Dios</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -3694,11 +3657,11 @@
         </is>
       </c>
       <c r="D145">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Clinica San Carlos de Apoquindo</t>
+          <t>Clinica Las Condes</t>
         </is>
       </c>
     </row>
@@ -3717,11 +3680,11 @@
         </is>
       </c>
       <c r="D146">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Clinica Vespucio</t>
+          <t>Clinica Dávila</t>
         </is>
       </c>
     </row>
@@ -3740,11 +3703,11 @@
         </is>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Hospital del Trabajador</t>
         </is>
       </c>
     </row>
@@ -3763,11 +3726,11 @@
         </is>
       </c>
       <c r="D148">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clinica U. Andes</t>
         </is>
       </c>
     </row>
@@ -3782,15 +3745,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D149">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Hospital Lucio Córdova</t>
         </is>
       </c>
     </row>
@@ -3805,15 +3768,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D150">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Hospital San juan de Dios</t>
         </is>
       </c>
     </row>
@@ -3832,11 +3795,11 @@
         </is>
       </c>
       <c r="D151">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Hospital San juan de Dios</t>
         </is>
       </c>
     </row>
@@ -3851,15 +3814,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="D152">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Clinica Alemana</t>
+          <t>Clinica San Carlos de Apoquindo</t>
         </is>
       </c>
     </row>
@@ -3878,11 +3841,1214 @@
         </is>
       </c>
       <c r="D153">
+        <v>35</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Clinica Vespucio</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D154">
+        <v>16</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>152</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D155">
+        <v>50</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>152</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D156">
+        <v>56</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>152</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D157">
+        <v>49</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>152</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D158">
+        <v>28</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>152</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D159">
+        <v>34</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>152</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D160">
         <v>73</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Clinica Alemana</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>O’Higgins</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>33</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>33</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D164">
+        <v>39</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D166">
+        <v>21</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>24</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D168">
+        <v>29</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hospital de Curicó</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D169">
+        <v>38</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D170">
+        <v>53</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Hospital de Talca</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>26</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>29</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>26</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>16</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>26</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D173">
+        <v>25</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>26</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>23</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>38</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>26</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>26</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>26</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>42</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>26</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>38</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>26</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>32</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>26</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>31</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>26</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>24</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>26</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>39</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>26</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>33</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>26</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>29</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>26</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>43</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>26</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>27</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>26</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>37</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>26</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>40</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D189">
+        <v>27</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>26</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D190">
+        <v>36</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Clínica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>26</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D191">
+        <v>30</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>26</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D192">
+        <v>26</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>26</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>29</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>26</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D194">
+        <v>32</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>26</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D195">
+        <v>48</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Hospital de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>26</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D196">
+        <v>31</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Clinica de Chillán</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D197">
+        <v>38</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Hospital de Los Ángeles</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D198">
+        <v>34</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Hospital G. Grant Benavente</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D199">
+        <v>32</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Clínica Universitaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D200">
+        <v>47</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Clinica Biobío</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Araucanía</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D201">
+        <v>35</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Hospital Hernán Henríquez Aravena</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Clinica Alemana Valdivia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D203">
+        <v>20</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Hospital de Puerto Montt</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D204">
+        <v>83</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Hospital de Aysén</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D205">
+        <v>70</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Clínica Magallanes</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D206">
+        <v>23</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Hospital de Punta Arenas</t>
         </is>
       </c>
     </row>
